--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T18:15:49+00:00</t>
+    <t>2022-08-08T14:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:54:31+00:00</t>
+    <t>2022-08-08T14:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:01+00:00</t>
+    <t>2022-08-08T14:55:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:43+00:00</t>
+    <t>2022-08-08T14:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:58:25+00:00</t>
+    <t>2022-09-20T21:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,470 +271,474 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>Task.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Task.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Task.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Task.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Task.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Task.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Task.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Task Instance Identifier</t>
+  </si>
+  <si>
+    <t>The business identifier for this task.</t>
+  </si>
+  <si>
+    <t>Request.identifier, Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition)
+</t>
+  </si>
+  <si>
+    <t>Formal definition of task</t>
+  </si>
+  <si>
+    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>Task.instantiatesUri</t>
+  </si>
+  <si>
+    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesUrl</t>
+  </si>
+  <si>
+    <t>Task.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/OpenMRS-service-request)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this task</t>
+  </si>
+  <si>
+    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
+  </si>
+  <si>
+    <t>Request.basedOn, Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>task.basedOn</t>
+  </si>
+  <si>
+    <t>Task.groupIdentifier</t>
+  </si>
+  <si>
+    <t>Requisition or grouper id</t>
+  </si>
+  <si>
+    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
+  </si>
+  <si>
+    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
+  </si>
+  <si>
+    <t>Task.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Task)
+</t>
+  </si>
+  <si>
+    <t>Composite task</t>
+  </si>
+  <si>
+    <t>Task that this particular task is part of.</t>
+  </si>
+  <si>
+    <t>This should usually be 0..1.</t>
+  </si>
+  <si>
+    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.status</t>
+  </si>
+  <si>
+    <t>draft | requested | received | accepted | +</t>
+  </si>
+  <si>
+    <t>The current status of the task.</t>
+  </si>
+  <si>
+    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://fhir.openmrs.org/fhir/ValueSet/OpenMRS-task-status-vs</t>
+  </si>
+  <si>
+    <t>Request.status, Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>task.status</t>
+  </si>
+  <si>
+    <t>Task.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
+  </si>
+  <si>
+    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
+    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
+  </si>
+  <si>
+    <t>Task.intent</t>
+  </si>
+  <si>
+    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
+  </si>
+  <si>
+    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
+In most cases, Tasks will have an intent of "order".</t>
+  </si>
+  <si>
+    <t>http://fhir.openmrs.org/fhir/ValueSet/OpenMRS-task-intent-vs</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>task.intent</t>
+  </si>
+  <si>
+    <t>Task.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>Used to identify the service level expected while performing a task.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>The task's priority.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>Task.code</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>A name or code (or both) briefly describing what the task involves.</t>
+  </si>
+  <si>
+    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
+  </si>
+  <si>
+    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-code</t>
+  </si>
+  <si>
+    <t>Request.code, Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Task.description</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>Task.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Task.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Task.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Task.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Task.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Task.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Task.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Task Instance Identifier</t>
-  </si>
-  <si>
-    <t>The business identifier for this task.</t>
-  </si>
-  <si>
-    <t>Request.identifier, Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Task.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition)
-</t>
-  </si>
-  <si>
-    <t>Formal definition of task</t>
-  </si>
-  <si>
-    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>Task.instantiatesUri</t>
-  </si>
-  <si>
-    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
-  </si>
-  <si>
-    <t>Event.instantiatesUrl</t>
-  </si>
-  <si>
-    <t>Task.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/OpenMRS-service-request)
-</t>
-  </si>
-  <si>
-    <t>Request fulfilled by this task</t>
-  </si>
-  <si>
-    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
-  </si>
-  <si>
-    <t>Request.basedOn, Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>task.basedOn</t>
-  </si>
-  <si>
-    <t>Task.groupIdentifier</t>
-  </si>
-  <si>
-    <t>Requisition or grouper id</t>
-  </si>
-  <si>
-    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
-  </si>
-  <si>
-    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
-  </si>
-  <si>
-    <t>Task.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Task)
-</t>
-  </si>
-  <si>
-    <t>Composite task</t>
-  </si>
-  <si>
-    <t>Task that this particular task is part of.</t>
-  </si>
-  <si>
-    <t>This should usually be 0..1.</t>
-  </si>
-  <si>
-    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.status</t>
-  </si>
-  <si>
-    <t>draft | requested | received | accepted | +</t>
-  </si>
-  <si>
-    <t>The current status of the task.</t>
-  </si>
-  <si>
-    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/OpenMRS-task-status-vs</t>
-  </si>
-  <si>
-    <t>Request.status, Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>task.status</t>
-  </si>
-  <si>
-    <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
-  </si>
-  <si>
-    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
-  </si>
-  <si>
-    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
-  </si>
-  <si>
-    <t>Task.intent</t>
-  </si>
-  <si>
-    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
-  </si>
-  <si>
-    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
-In most cases, Tasks will have an intent of "order".</t>
-  </si>
-  <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/OpenMRS-task-intent-vs</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>task.intent</t>
-  </si>
-  <si>
-    <t>Task.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Used to identify the service level expected while performing a task.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>The task's priority.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>Task.code</t>
-  </si>
-  <si>
-    <t>Task Type</t>
-  </si>
-  <si>
-    <t>A name or code (or both) briefly describing what the task involves.</t>
-  </si>
-  <si>
-    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
-  </si>
-  <si>
-    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code</t>
-  </si>
-  <si>
-    <t>Request.code, Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>Task.description</t>
   </si>
   <si>
     <t>Human-readable explanation of task</t>
@@ -4228,13 +4232,13 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4303,7 +4307,7 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4317,7 +4321,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4340,19 +4344,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4401,7 +4405,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4419,7 +4423,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>231</v>
@@ -4428,16 +4432,16 @@
         <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4456,17 +4460,17 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4515,7 +4519,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4530,24 +4534,24 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4570,17 +4574,17 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4629,7 +4633,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4644,13 +4648,13 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4661,7 +4665,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4684,13 +4688,13 @@
         <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4741,7 +4745,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4756,13 +4760,13 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4773,11 +4777,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4796,17 +4800,17 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4855,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4864,19 +4868,19 @@
         <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4887,11 +4891,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4910,17 +4914,17 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4969,7 +4973,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4978,7 +4982,7 @@
         <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>96</v>
@@ -4987,7 +4991,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5001,7 +5005,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5024,17 +5028,17 @@
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -5083,7 +5087,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5098,13 +5102,13 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5115,7 +5119,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5141,14 +5145,14 @@
         <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5176,10 +5180,10 @@
         <v>108</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -5197,7 +5201,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5212,13 +5216,13 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5229,11 +5233,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5252,19 +5256,19 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5313,7 +5317,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5328,24 +5332,24 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5368,17 +5372,17 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5427,7 +5431,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5442,13 +5446,13 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5459,7 +5463,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5485,13 +5489,13 @@
         <v>191</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5520,7 +5524,7 @@
         <v>195</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>74</v>
@@ -5541,7 +5545,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5556,16 +5560,16 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5573,7 +5577,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5596,16 +5600,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5655,7 +5659,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5670,13 +5674,13 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5687,7 +5691,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5710,13 +5714,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5767,7 +5771,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5782,16 +5786,16 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5799,7 +5803,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5822,13 +5826,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5879,7 +5883,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5894,10 +5898,10 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5911,11 +5915,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5934,16 +5938,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5993,7 +5997,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6008,10 +6012,10 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6025,7 +6029,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6048,17 +6052,17 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -6107,7 +6111,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6125,7 +6129,7 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6139,7 +6143,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6162,13 +6166,13 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6219,7 +6223,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6237,7 +6241,7 @@
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6251,7 +6255,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6280,7 +6284,7 @@
         <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>133</v>
@@ -6333,7 +6337,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6351,7 +6355,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6365,11 +6369,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6391,10 +6395,10 @@
         <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>133</v>
@@ -6449,7 +6453,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6481,7 +6485,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6504,17 +6508,17 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6563,7 +6567,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6581,7 +6585,7 @@
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6595,7 +6599,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6618,19 +6622,19 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6679,7 +6683,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6697,7 +6701,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6711,7 +6715,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6734,13 +6738,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6791,7 +6795,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6809,7 +6813,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6823,11 +6827,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6846,17 +6850,17 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6905,7 +6909,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6923,7 +6927,7 @@
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6932,12 +6936,12 @@
         <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6960,13 +6964,13 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7017,7 +7021,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7035,7 +7039,7 @@
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -7049,7 +7053,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7078,7 +7082,7 @@
         <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>133</v>
@@ -7131,7 +7135,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7149,7 +7153,7 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7163,11 +7167,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7189,10 +7193,10 @@
         <v>130</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>133</v>
@@ -7247,7 +7251,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7279,11 +7283,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7305,16 +7309,16 @@
         <v>191</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7342,7 +7346,7 @@
         <v>195</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>74</v>
@@ -7363,7 +7367,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>83</v>
@@ -7381,7 +7385,7 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7395,7 +7399,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7418,13 +7422,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7475,7 +7479,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>83</v>
@@ -7493,7 +7497,7 @@
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7507,7 +7511,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7530,17 +7534,17 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7589,7 +7593,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7607,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7616,12 +7620,12 @@
         <v>74</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7644,13 +7648,13 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7701,7 +7705,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7719,7 +7723,7 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7733,7 +7737,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7762,7 +7766,7 @@
         <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>133</v>
@@ -7815,7 +7819,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7833,7 +7837,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7847,11 +7851,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7873,10 +7877,10 @@
         <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>133</v>
@@ -7931,7 +7935,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7963,11 +7967,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7989,14 +7993,14 @@
         <v>191</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
@@ -8024,7 +8028,7 @@
         <v>195</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>74</v>
@@ -8045,7 +8049,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>83</v>
@@ -8063,7 +8067,7 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8077,7 +8081,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8100,17 +8104,17 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -8159,7 +8163,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>83</v>
@@ -8177,7 +8181,7 @@
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:17:20+00:00</t>
+    <t>2022-09-20T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:19:27+00:00</t>
+    <t>2022-09-20T21:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="430">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:37:06+00:00</t>
+    <t>2022-10-08T01:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>A task to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1913,13 +1909,13 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -1933,7 +1929,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1944,28 +1940,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2015,39 +2011,39 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2058,25 +2054,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2127,19 +2123,19 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -2159,7 +2155,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2170,28 +2166,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2241,19 +2237,19 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -2273,7 +2269,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2284,7 +2280,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -2296,16 +2292,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2331,43 +2327,43 @@
         <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -2387,18 +2383,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2410,16 +2406,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2469,25 +2465,25 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2501,11 +2497,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2524,16 +2520,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2583,7 +2579,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2601,7 +2597,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2615,11 +2611,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2638,16 +2634,16 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2697,7 +2693,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2709,13 +2705,13 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2729,11 +2725,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2746,25 +2742,25 @@
         <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -2813,7 +2809,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2825,13 +2821,13 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2845,7 +2841,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2853,7 +2849,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2868,13 +2864,13 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2925,7 +2921,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2937,16 +2933,16 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2957,7 +2953,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2968,29 +2964,29 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -3039,25 +3035,25 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3071,7 +3067,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3082,29 +3078,29 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
@@ -3153,25 +3149,25 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3185,7 +3181,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3193,7 +3189,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>76</v>
@@ -3205,16 +3201,16 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3265,7 +3261,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3277,27 +3273,27 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3308,29 +3304,29 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3379,25 +3375,25 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3411,7 +3407,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3431,22 +3427,22 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3495,7 +3491,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3507,13 +3503,13 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3527,7 +3523,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3535,32 +3531,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3585,61 +3581,61 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3650,28 +3646,28 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3697,49 +3693,49 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3753,7 +3749,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3764,29 +3760,29 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3811,49 +3807,49 @@
         <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3867,7 +3863,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3875,31 +3871,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3925,61 +3921,61 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3990,7 +3986,7 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -4002,89 +3998,89 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P21" t="s" s="2">
+      <c r="Q21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4095,7 +4091,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4106,28 +4102,28 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4153,63 +4149,63 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4220,25 +4216,25 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4289,25 +4285,25 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4321,7 +4317,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4332,31 +4328,31 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4405,72 +4401,72 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4519,39 +4515,39 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4562,29 +4558,29 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4633,28 +4629,28 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4665,7 +4661,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4676,25 +4672,25 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4745,28 +4741,28 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4777,18 +4773,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4800,17 +4796,17 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4859,28 +4855,28 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4891,40 +4887,40 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4973,25 +4969,25 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5005,7 +5001,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5016,29 +5012,29 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -5087,28 +5083,28 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5119,7 +5115,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5142,17 +5138,17 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5177,14 +5173,14 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5201,7 +5197,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5213,16 +5209,16 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5233,42 +5229,42 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5317,39 +5313,39 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5360,29 +5356,29 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5431,28 +5427,28 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5463,7 +5459,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5474,7 +5470,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -5486,16 +5482,16 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5521,55 +5517,55 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5577,7 +5573,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5588,7 +5584,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>74</v>
@@ -5600,16 +5596,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5659,28 +5655,28 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5691,7 +5687,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5714,13 +5710,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5771,7 +5767,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5783,19 +5779,19 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5803,7 +5799,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5826,13 +5822,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5883,7 +5879,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5895,13 +5891,13 @@
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5915,11 +5911,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5938,16 +5934,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5997,7 +5993,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6009,13 +6005,13 @@
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6029,7 +6025,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6040,7 +6036,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -6052,17 +6048,17 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -6111,25 +6107,25 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6143,7 +6139,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6154,7 +6150,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>74</v>
@@ -6166,13 +6162,13 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6223,25 +6219,25 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6255,11 +6251,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6278,16 +6274,16 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6337,7 +6333,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6349,13 +6345,13 @@
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6369,11 +6365,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6386,25 +6382,25 @@
         <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6453,7 +6449,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6465,13 +6461,13 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6485,7 +6481,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6496,7 +6492,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6508,17 +6504,17 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6567,25 +6563,25 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6599,7 +6595,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6610,7 +6606,7 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6622,19 +6618,19 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6683,25 +6679,25 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6715,7 +6711,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6738,13 +6734,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6795,7 +6791,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6807,13 +6803,13 @@
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6827,11 +6823,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6850,17 +6846,17 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6909,7 +6905,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6921,27 +6917,27 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>399</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6952,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6964,13 +6960,13 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7021,25 +7017,25 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -7053,11 +7049,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7076,16 +7072,16 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7135,7 +7131,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7147,13 +7143,13 @@
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7167,11 +7163,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7184,25 +7180,25 @@
         <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -7251,7 +7247,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7263,13 +7259,13 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7283,18 +7279,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -7306,19 +7302,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7343,10 +7339,10 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>74</v>
@@ -7367,25 +7363,25 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7399,7 +7395,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7407,10 +7403,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -7422,13 +7418,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7479,25 +7475,25 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7511,7 +7507,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7534,17 +7530,17 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7593,7 +7589,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7605,13 +7601,13 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7620,12 +7616,12 @@
         <v>74</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7636,7 +7632,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7648,13 +7644,13 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7705,25 +7701,25 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7737,11 +7733,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7760,16 +7756,16 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7819,7 +7815,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7831,13 +7827,13 @@
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7851,11 +7847,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7868,25 +7864,25 @@
         <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -7935,7 +7931,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7947,13 +7943,13 @@
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7967,18 +7963,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7990,17 +7986,17 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
@@ -8025,10 +8021,10 @@
         <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>74</v>
@@ -8049,25 +8045,25 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8081,7 +8077,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8089,10 +8085,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>74</v>
@@ -8104,17 +8100,17 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -8163,25 +8159,25 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T01:52:10+00:00</t>
+    <t>2022-10-08T02:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:01:28+00:00</t>
+    <t>2022-10-08T02:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:22+00:00</t>
+    <t>2022-10-08T02:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:45+00:00</t>
+    <t>2022-10-08T02:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:04:28+00:00</t>
+    <t>2022-10-08T02:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:06:31+00:00</t>
+    <t>2022-10-08T02:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -523,7 +523,7 @@
     <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
   </si>
   <si>
-    <t>task.basedOn</t>
+    <t>FhirTask.basedOn</t>
   </si>
   <si>
     <t>Task.groupIdentifier</t>
@@ -596,7 +596,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>task.status</t>
+    <t>FhirTask.status</t>
   </si>
   <si>
     <t>Task.statusReason</t>
@@ -667,7 +667,7 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>task.intent</t>
+    <t>FhirTask.intent</t>
   </si>
   <si>
     <t>Task.priority</t>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>code</t>
   </si>
   <si>
     <t>Task.description</t>
@@ -768,9 +765,6 @@
     <t>.outboundRelationship[typeCode=SUBJ].target</t>
   </si>
   <si>
-    <t>focus</t>
-  </si>
-  <si>
     <t>Task.for</t>
   </si>
   <si>
@@ -800,13 +794,13 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>patient</t>
+    <t>FhirTask.for</t>
   </si>
   <si>
     <t>Task.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-encounter)
 </t>
   </si>
   <si>
@@ -826,6 +820,9 @@
   </si>
   <si>
     <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>FhirTask.encounter</t>
   </si>
   <si>
     <t>Task.executionPeriod</t>
@@ -883,6 +880,9 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
+    <t>FhirTask.dateCreated</t>
+  </si>
+  <si>
     <t>Task.lastModified</t>
   </si>
   <si>
@@ -902,6 +902,9 @@
     <t>.inboundRelationship[typeCode=SUBJ, ].source[classCode=CACT, moodCode=EVN].effectiveTime</t>
   </si>
   <si>
+    <t>FhirTask.dateChanged</t>
+  </si>
+  <si>
     <t>Task.requester</t>
   </si>
   <si>
@@ -961,7 +964,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -983,7 +986,7 @@
     <t>.participation[typeCode=PRF].role</t>
   </si>
   <si>
-    <t>task.owner</t>
+    <t>FhirTask.owner</t>
   </si>
   <si>
     <t>Task.location</t>
@@ -1252,7 +1255,7 @@
     <t>???</t>
   </si>
   <si>
-    <t>task.input</t>
+    <t>FhirTask.input</t>
   </si>
   <si>
     <t>Task.input.id</t>
@@ -1311,7 +1314,7 @@
     <t>Resources and data produced during the execution the task.  This data is generated by the business logic of task execution, and is stored separately because it varies between workflows.</t>
   </si>
   <si>
-    <t>task.output</t>
+    <t>FhirTask.output</t>
   </si>
   <si>
     <t>Task.output.id</t>
@@ -1937,7 +1940,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>82</v>
@@ -2849,7 +2852,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2964,7 +2967,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -3078,7 +3081,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -3304,7 +3307,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -3418,7 +3421,7 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -3646,7 +3649,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -3760,7 +3763,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -3986,7 +3989,7 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -4102,7 +4105,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -4200,12 +4203,12 @@
         <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4216,7 +4219,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4228,13 +4231,13 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4285,7 +4288,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4303,7 +4306,7 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4317,7 +4320,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4328,7 +4331,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -4340,19 +4343,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4401,7 +4404,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4419,7 +4422,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>230</v>
@@ -4428,16 +4431,16 @@
         <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4456,17 +4459,17 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4515,7 +4518,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4530,24 +4533,24 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4570,17 +4573,17 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4629,7 +4632,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4644,24 +4647,24 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4672,7 +4675,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4684,13 +4687,13 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4741,7 +4744,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4756,13 +4759,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4773,11 +4776,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4796,17 +4799,17 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4855,7 +4858,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4864,25 +4867,25 @@
         <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="29">
@@ -4910,7 +4913,7 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>282</v>
@@ -4978,7 +4981,7 @@
         <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>95</v>
@@ -4996,12 +4999,12 @@
         <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5012,7 +5015,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -5024,17 +5027,17 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -5083,7 +5086,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5098,13 +5101,13 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5115,7 +5118,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5126,7 +5129,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -5141,14 +5144,14 @@
         <v>190</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5176,10 +5179,10 @@
         <v>107</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -5197,7 +5200,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5212,13 +5215,13 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5229,11 +5232,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5252,19 +5255,19 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5313,7 +5316,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5328,24 +5331,24 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5356,7 +5359,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>74</v>
@@ -5368,17 +5371,17 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5427,7 +5430,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5442,13 +5445,13 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5459,7 +5462,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5470,7 +5473,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -5485,13 +5488,13 @@
         <v>190</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5520,7 +5523,7 @@
         <v>194</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>74</v>
@@ -5541,7 +5544,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5556,16 +5559,16 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5573,7 +5576,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5584,7 +5587,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>74</v>
@@ -5596,16 +5599,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5655,7 +5658,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5670,13 +5673,13 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5687,7 +5690,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5698,7 +5701,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5710,13 +5713,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5767,7 +5770,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5782,16 +5785,16 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5799,7 +5802,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5810,7 +5813,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
@@ -5822,13 +5825,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5879,7 +5882,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5894,10 +5897,10 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5911,18 +5914,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5934,16 +5937,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5993,7 +5996,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6008,10 +6011,10 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6025,7 +6028,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6036,7 +6039,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -6048,17 +6051,17 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -6107,7 +6110,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6125,7 +6128,7 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6139,7 +6142,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6162,13 +6165,13 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6219,7 +6222,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6237,7 +6240,7 @@
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6251,7 +6254,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6280,7 +6283,7 @@
         <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>132</v>
@@ -6333,7 +6336,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6351,7 +6354,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6365,11 +6368,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6391,10 +6394,10 @@
         <v>129</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>132</v>
@@ -6449,7 +6452,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6481,7 +6484,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6504,17 +6507,17 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6563,7 +6566,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6581,7 +6584,7 @@
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6595,7 +6598,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6618,19 +6621,19 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6679,7 +6682,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6697,7 +6700,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6711,7 +6714,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6734,13 +6737,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6791,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6809,7 +6812,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6823,11 +6826,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6846,17 +6849,17 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6905,7 +6908,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6923,7 +6926,7 @@
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6932,12 +6935,12 @@
         <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6960,13 +6963,13 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7017,7 +7020,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7035,7 +7038,7 @@
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -7049,7 +7052,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7078,7 +7081,7 @@
         <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>132</v>
@@ -7131,7 +7134,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7149,7 +7152,7 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7163,11 +7166,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7189,10 +7192,10 @@
         <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>132</v>
@@ -7247,7 +7250,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7279,11 +7282,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7305,16 +7308,16 @@
         <v>190</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7342,7 +7345,7 @@
         <v>194</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>74</v>
@@ -7363,7 +7366,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>82</v>
@@ -7381,7 +7384,7 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7395,7 +7398,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7418,13 +7421,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7475,7 +7478,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>82</v>
@@ -7493,7 +7496,7 @@
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7507,7 +7510,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7530,17 +7533,17 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7589,7 +7592,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7607,7 +7610,7 @@
         <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7616,12 +7619,12 @@
         <v>74</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7644,13 +7647,13 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7701,7 +7704,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7719,7 +7722,7 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7733,7 +7736,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7762,7 +7765,7 @@
         <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>132</v>
@@ -7815,7 +7818,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7833,7 +7836,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7847,11 +7850,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7873,10 +7876,10 @@
         <v>129</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>132</v>
@@ -7931,7 +7934,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7963,11 +7966,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7989,14 +7992,14 @@
         <v>190</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
@@ -8024,7 +8027,7 @@
         <v>194</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>74</v>
@@ -8045,7 +8048,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>82</v>
@@ -8063,7 +8066,7 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8077,7 +8080,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8100,17 +8103,17 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -8159,7 +8162,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>82</v>
@@ -8177,7 +8180,7 @@
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:08:40+00:00</t>
+    <t>2022-10-08T02:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:09:14+00:00</t>
+    <t>2022-10-08T02:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:10:18+00:00</t>
+    <t>2022-10-08T02:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:12:18+00:00</t>
+    <t>2022-10-08T02:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:13:28+00:00</t>
+    <t>2022-10-08T02:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:14:23+00:00</t>
+    <t>2022-11-29T17:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T17:04:20+00:00</t>
+    <t>2023-03-15T20:21:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:21:30+00:00</t>
+    <t>2023-03-15T20:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:20+00:00</t>
+    <t>2023-03-15T20:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:19+00:00</t>
+    <t>2023-03-16T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3010,7 +3010,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3127,7 +3127,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3359,7 +3359,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3476,7 +3476,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3710,7 +3710,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3827,7 +3827,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -4059,7 +4059,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4178,7 +4178,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4295,7 +4295,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4410,7 +4410,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4763,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -5112,7 +5112,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -5229,7 +5229,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5465,7 +5465,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5582,7 +5582,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5699,7 +5699,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5816,7 +5816,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5931,7 +5931,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -6046,7 +6046,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -6163,7 +6163,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/OpenMRS-task</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/OpenMRS-task</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:55:39+00:00</t>
+    <t>2023-05-08T19:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -514,7 +514,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/OpenMRS-service-request)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/OpenMRS-service-request)
 </t>
   </si>
   <si>
@@ -591,7 +591,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/OpenMRS-task-status-vs</t>
+    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
   </si>
   <si>
     <t>Request.status, Event.status</t>
@@ -662,7 +662,10 @@
 In most cases, Tasks will have an intent of "order".</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/OpenMRS-task-intent-vs</t>
+    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -779,7 +782,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-patient)
 </t>
   </si>
   <si>
@@ -807,7 +810,7 @@
     <t>Task.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-encounter)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-encounter)
 </t>
   </si>
   <si>
@@ -1686,7 +1689,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.55078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3644,7 +3647,9 @@
       <c r="X17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y17" s="2"/>
+      <c r="Y17" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="Z17" t="s" s="2">
         <v>186</v>
       </c>
@@ -3993,9 +3998,11 @@
       <c r="X20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y20" s="2"/>
+      <c r="Y20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4028,27 +4035,27 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4074,20 +4081,20 @@
         <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>75</v>
@@ -4111,10 +4118,10 @@
         <v>185</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4132,7 +4139,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4147,13 +4154,13 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>75</v>
@@ -4164,10 +4171,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4193,13 +4200,13 @@
         <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4228,10 +4235,10 @@
         <v>196</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4249,7 +4256,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4264,13 +4271,13 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>75</v>
@@ -4281,10 +4288,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4307,13 +4314,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4364,7 +4371,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4382,7 +4389,7 @@
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>75</v>
@@ -4396,10 +4403,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4422,19 +4429,19 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4483,7 +4490,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4501,10 +4508,10 @@
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4515,14 +4522,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4541,17 +4548,17 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4600,7 +4607,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4615,27 +4622,27 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4658,17 +4665,17 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4717,7 +4724,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4732,27 +4739,27 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4775,13 +4782,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4832,7 +4839,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4847,13 +4854,13 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>75</v>
@@ -4864,14 +4871,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4890,17 +4897,17 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4949,7 +4956,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4958,37 +4965,37 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5007,17 +5014,17 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -5066,7 +5073,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5075,7 +5082,7 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
@@ -5084,7 +5091,7 @@
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5093,15 +5100,15 @@
         <v>75</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5124,17 +5131,17 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5183,7 +5190,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5198,13 +5205,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>75</v>
@@ -5215,10 +5222,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5244,14 +5251,14 @@
         <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5279,10 +5286,10 @@
         <v>109</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5300,7 +5307,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5315,13 +5322,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -5332,14 +5339,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5358,19 +5365,19 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5419,7 +5426,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5434,27 +5441,27 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5477,17 +5484,17 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5536,7 +5543,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5551,13 +5558,13 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5568,10 +5575,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5597,13 +5604,13 @@
         <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5632,7 +5639,7 @@
         <v>196</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -5653,7 +5660,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5668,16 +5675,16 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>75</v>
@@ -5685,10 +5692,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5711,16 +5718,16 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5770,7 +5777,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5785,13 +5792,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5802,10 +5809,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5828,13 +5835,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5885,7 +5892,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5900,16 +5907,16 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>75</v>
@@ -5917,10 +5924,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5943,13 +5950,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6000,7 +6007,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6015,10 +6022,10 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -6032,14 +6039,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6058,16 +6065,16 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6117,7 +6124,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6132,10 +6139,10 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -6149,10 +6156,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6175,17 +6182,17 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6234,7 +6241,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6252,7 +6259,7 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6266,10 +6273,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6292,13 +6299,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6349,7 +6356,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6367,7 +6374,7 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -6381,10 +6388,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6413,7 +6420,7 @@
         <v>132</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>134</v>
@@ -6466,7 +6473,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6484,7 +6491,7 @@
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -6498,14 +6505,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6527,10 +6534,10 @@
         <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>134</v>
@@ -6585,7 +6592,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6617,10 +6624,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6643,17 +6650,17 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6702,7 +6709,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6720,7 +6727,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6734,10 +6741,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6760,19 +6767,19 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6821,7 +6828,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6839,7 +6846,7 @@
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6853,10 +6860,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6879,13 +6886,13 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6936,7 +6943,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6954,7 +6961,7 @@
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6968,14 +6975,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6994,17 +7001,17 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -7053,7 +7060,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7071,7 +7078,7 @@
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7080,15 +7087,15 @@
         <v>75</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7111,13 +7118,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7168,7 +7175,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7186,7 +7193,7 @@
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>75</v>
@@ -7200,10 +7207,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7232,7 +7239,7 @@
         <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>134</v>
@@ -7285,7 +7292,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7303,7 +7310,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7317,14 +7324,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7346,10 +7353,10 @@
         <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>134</v>
@@ -7404,7 +7411,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7436,14 +7443,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7465,16 +7472,16 @@
         <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7502,7 +7509,7 @@
         <v>196</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>75</v>
@@ -7523,7 +7530,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>84</v>
@@ -7541,7 +7548,7 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7555,10 +7562,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7581,13 +7588,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7638,7 +7645,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>84</v>
@@ -7656,7 +7663,7 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7670,10 +7677,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7696,17 +7703,17 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7755,7 +7762,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7773,7 +7780,7 @@
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -7782,15 +7789,15 @@
         <v>75</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7813,13 +7820,13 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7870,7 +7877,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7888,7 +7895,7 @@
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -7902,10 +7909,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7934,7 +7941,7 @@
         <v>132</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>134</v>
@@ -7987,7 +7994,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8005,7 +8012,7 @@
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8019,14 +8026,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8048,10 +8055,10 @@
         <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>134</v>
@@ -8106,7 +8113,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8138,14 +8145,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8167,14 +8174,14 @@
         <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -8202,7 +8209,7 @@
         <v>196</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>75</v>
@@ -8223,7 +8230,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>84</v>
@@ -8241,7 +8248,7 @@
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8255,10 +8262,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8281,17 +8288,17 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8340,7 +8347,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>84</v>
@@ -8358,7 +8365,7 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T19:25:22+00:00</t>
+    <t>2023-05-09T05:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T05:52:21+00:00</t>
+    <t>2023-05-17T15:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="393">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:10:06+00:00</t>
+    <t>2023-06-22T11:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,129 +115,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
   </si>
   <si>
     <t/>
@@ -1482,10 +1359,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1655,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1666,13 +1543,11 @@
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1683,6698 +1558,6574 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="45.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="21.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>74</v>
+      <c r="AM1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>190</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>214</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>264</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>282</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>289</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>302</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>303</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>316</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>332</v>
+        <v>34</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>345</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>358</v>
+        <v>34</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>91</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>375</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>140</v>
+        <v>342</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>128</v>
+        <v>343</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>266</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>397</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>402</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>91</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>128</v>
+        <v>360</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>407</v>
+        <v>34</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>192</v>
+        <v>373</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>412</v>
+        <v>34</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>414</v>
+        <v>320</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>75</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>419</v>
+        <v>327</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>421</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>91</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>140</v>
+        <v>387</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>128</v>
+        <v>360</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>407</v>
+        <v>34</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>373</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>34</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:16:34+00:00</t>
+    <t>2023-06-23T17:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OpenMRS-task.xlsx
+++ b/StructureDefinition-OpenMRS-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-23T17:20:12+00:00</t>
+    <t>2024-12-11T17:17:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -117,7 +123,127 @@
     <t>constraint</t>
   </si>
   <si>
-    <t/>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t>0</t>
@@ -136,6 +262,10 @@
     <t>A task to be performed.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
+  </si>
+  <si>
     <t>Request, Event</t>
   </si>
   <si>
@@ -401,13 +531,13 @@
     <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
   </si>
   <si>
+    <t>FhirTask.basedOn</t>
+  </si>
+  <si>
     <t>Request.basedOn, Event.basedOn</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>FhirTask.basedOn</t>
   </si>
   <si>
     <t>Task.groupIdentifier</t>
@@ -471,6 +601,9 @@
     <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
   </si>
   <si>
+    <t>FhirTask.status</t>
+  </si>
+  <si>
     <t>Request.status, Event.status</t>
   </si>
   <si>
@@ -478,9 +611,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>FhirTask.status</t>
   </si>
   <si>
     <t>Task.statusReason</t>
@@ -545,6 +675,9 @@
     <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
   </si>
   <si>
+    <t>FhirTask.intent</t>
+  </si>
+  <si>
     <t>Request.intent</t>
   </si>
   <si>
@@ -552,9 +685,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>FhirTask.intent</t>
   </si>
   <si>
     <t>Task.priority</t>
@@ -672,6 +802,9 @@
     <t>Used to track tasks outstanding for a beneficiary.  Do not use to track the task owner or creator (see owner and creator respectively).  This can also affect access control.</t>
   </si>
   <si>
+    <t>FhirTask.for</t>
+  </si>
+  <si>
     <t>Request.subject, Event.subject</t>
   </si>
   <si>
@@ -679,9 +812,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>FhirTask.for</t>
   </si>
   <si>
     <t>Task.encounter</t>
@@ -700,6 +830,9 @@
     <t>For some tasks it may be important to know the link between the encounter the task originated within.</t>
   </si>
   <si>
+    <t>FhirTask.encounter</t>
+  </si>
+  <si>
     <t>Request.context, Event.context</t>
   </si>
   <si>
@@ -707,9 +840,6 @@
   </si>
   <si>
     <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>FhirTask.encounter</t>
   </si>
   <si>
     <t>Task.executionPeriod</t>
@@ -758,6 +888,9 @@
 </t>
   </si>
   <si>
+    <t>FhirTask.dateCreated</t>
+  </si>
+  <si>
     <t>Request.authoredOn</t>
   </si>
   <si>
@@ -765,9 +898,6 @@
   </si>
   <si>
     <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>FhirTask.dateCreated</t>
   </si>
   <si>
     <t>Task.lastModified</t>
@@ -786,10 +916,10 @@
     <t>Used along with history to track task activity and time in a particular task state.  This enables monitoring and management.</t>
   </si>
   <si>
+    <t>FhirTask.dateChanged</t>
+  </si>
+  <si>
     <t>.inboundRelationship[typeCode=SUBJ, ].source[classCode=CACT, moodCode=EVN].effectiveTime</t>
-  </si>
-  <si>
-    <t>FhirTask.dateChanged</t>
   </si>
   <si>
     <t>Task.requester</t>
@@ -867,13 +997,13 @@
     <t>Identifies who is expected to perform this task.</t>
   </si>
   <si>
+    <t>FhirTask.owner</t>
+  </si>
+  <si>
     <t>Event.performer.actor, Request.performer</t>
   </si>
   <si>
     <t>.participation[typeCode=PRF].role</t>
-  </si>
-  <si>
-    <t>FhirTask.owner</t>
   </si>
   <si>
     <t>Task.location</t>
@@ -1139,10 +1269,10 @@
     <t>Resources and data used to perform the task.  This data is used in the business logic of task execution, and is stored separately because it varies between workflows.</t>
   </si>
   <si>
+    <t>FhirTask.input</t>
+  </si>
+  <si>
     <t>???</t>
-  </si>
-  <si>
-    <t>FhirTask.input</t>
   </si>
   <si>
     <t>Task.input.id</t>
@@ -1371,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1469,21 +1599,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1523,6 +1653,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1543,11 +1681,13 @@
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1558,6574 +1698,6698 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="45.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="7.8203125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="21.68359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="109.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>7</v>
+      <c r="G1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>173</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="Y21" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>214</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>241</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>248</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>275</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>34</v>
+        <v>331</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>34</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>34</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>34</v>
+        <v>355</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>34</v>
+        <v>361</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>34</v>
+        <v>377</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>342</v>
+        <v>142</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>34</v>
+        <v>386</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>34</v>
+        <v>397</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>361</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>34</v>
+        <v>399</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>34</v>
+        <v>403</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>369</v>
+        <v>136</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>370</v>
+        <v>142</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>371</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>34</v>
+        <v>409</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>373</v>
+        <v>194</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>34</v>
+        <v>414</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>380</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>34</v>
+        <v>423</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>387</v>
+        <v>142</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>34</v>
+        <v>409</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>373</v>
+        <v>194</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>34</v>
+        <v>431</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
